--- a/Finflux Automation Excels/Client/5038-Nabkisan-Componding-penality-Charge-loan-UndoDisburse.xlsx
+++ b/Finflux Automation Excels/Client/5038-Nabkisan-Componding-penality-Charge-loan-UndoDisburse.xlsx
@@ -190,7 +190,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -231,6 +231,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -265,7 +272,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="15" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -294,6 +301,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -678,7 +686,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -791,7 +799,7 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection sqref="A1:G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -985,7 +993,7 @@
   <dimension ref="A1:Q8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1349,7 +1357,7 @@
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1383,7 +1391,7 @@
     </row>
     <row r="2" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
-        <v>589</v>
+        <v>96</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>37</v>
@@ -1407,7 +1415,7 @@
     </row>
     <row r="3" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
-        <v>588</v>
+        <v>95</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>37</v>
@@ -1431,7 +1439,7 @@
     </row>
     <row r="4" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
-        <v>587</v>
+        <v>94</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>37</v>
@@ -1455,7 +1463,7 @@
     </row>
     <row r="5" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
-        <v>586</v>
+        <v>93</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>37</v>
@@ -1479,7 +1487,7 @@
     </row>
     <row r="6" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
-        <v>585</v>
+        <v>92</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>37</v>
@@ -1503,7 +1511,7 @@
     </row>
     <row r="7" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
-        <v>584</v>
+        <v>91</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>37</v>
@@ -1527,7 +1535,7 @@
     </row>
     <row r="8" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
-        <v>583</v>
+        <v>90</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>37</v>
@@ -1551,7 +1559,7 @@
     </row>
     <row r="9" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
-        <v>582</v>
+        <v>89</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>37</v>
@@ -1575,7 +1583,7 @@
     </row>
     <row r="10" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
-        <v>581</v>
+        <v>88</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>37</v>
@@ -1599,7 +1607,7 @@
     </row>
     <row r="11" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
-        <v>580</v>
+        <v>87</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>37</v>
@@ -1623,7 +1631,7 @@
     </row>
     <row r="12" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
-        <v>579</v>
+        <v>86</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>37</v>
@@ -1647,7 +1655,7 @@
     </row>
     <row r="13" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
-        <v>578</v>
+        <v>85</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>37</v>
@@ -1671,7 +1679,7 @@
     </row>
     <row r="14" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
-        <v>577</v>
+        <v>84</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>37</v>
@@ -1703,12 +1711,14 @@
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="5" width="9.140625" style="12"/>
+    <col min="6" max="6" width="9.5703125" style="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -1757,7 +1767,7 @@
       <c r="J2" s="6"/>
       <c r="K2" s="6"/>
     </row>
-    <row r="3" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>47</v>
       </c>
@@ -1790,7 +1800,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="K3" r:id="rId1" location="/loanaccountcharge/16/waivecharge/106" display="D:\bharath\Code\conflux-web\app\index.html?baseApiUrl=https:\localhost:8443\fineract-provider\api\v1&amp;tenantIdentifier=default - /loanaccountcharge/16/waivecharge/106"/>
+    <hyperlink ref="K3" r:id="rId1" location="/loanaccountcharge/3/waivecharge/9" display="D:\bharath\Code\conflux-web\app\index.html?baseApiUrl=https:\localhost:8443\fineract-provider\api\v1&amp;tenantIdentifier=default - /loanaccountcharge/3/waivecharge/9"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
